--- a/Prototype/PHPSCRIPTS/JASON/calc.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/calc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,21 +369,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F8:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
       <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>8</v>
       </c>

--- a/Prototype/PHPSCRIPTS/JASON/calc.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/calc.xlsx
@@ -25,6 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,8 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +377,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +386,7 @@
       <c r="A1">
         <v>3</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -438,5 +443,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>